--- a/source_code/data/results/[0_basic]_#_inv_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15839.72498741311</v>
+        <v>15977.12711525563</v>
       </c>
       <c r="B2" t="n">
-        <v>32256.15974436596</v>
+        <v>29849.14824628064</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>128517.0388447179</v>
+        <v>130561.33776026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661969</v>
+        <v>80959.2571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64017.77606725221</v>
+        <v>64251.52279541099</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42446.40074926778</v>
+        <v>40111.28994154878</v>
       </c>
       <c r="B2" t="n">
-        <v>67091.49710379892</v>
+        <v>65322.58173581541</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>331700.8592844685</v>
+        <v>340833.9912939204</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142141.7591324478</v>
+        <v>141324.1323737949</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55494.79269147397</v>
+        <v>56025.16122751532</v>
       </c>
       <c r="B2" t="n">
-        <v>205927.0402661999</v>
+        <v>207449.585816139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>660375.349134724</v>
+        <v>657198.7126679525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91765.13966548438</v>
+        <v>96189.68304409613</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_inv_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15839.72498741311</v>
+        <v>13556.8743697279</v>
       </c>
       <c r="B2" t="n">
-        <v>32256.15974436596</v>
+        <v>12807.05121601179</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>128517.0388447179</v>
+        <v>140269.0210065423</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661969</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64017.77606725221</v>
+        <v>60400.70761577622</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42446.40074926778</v>
+        <v>57998.61906960412</v>
       </c>
       <c r="B2" t="n">
-        <v>67091.49710379892</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>331700.8592844685</v>
+        <v>329994.9866376074</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142141.7591324478</v>
+        <v>127020.7135809765</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55494.79269147397</v>
+        <v>43653.09610320612</v>
       </c>
       <c r="B2" t="n">
-        <v>205927.0402661999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>660375.349134724</v>
+        <v>479395.7915743776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91765.13966548438</v>
+        <v>109939.9744680807</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_inv_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13556.8743697279</v>
+        <v>13542.66239954146</v>
       </c>
       <c r="B2" t="n">
-        <v>12807.05121601179</v>
+        <v>7388.713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140269.0210065423</v>
+        <v>145938.1080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60400.70761577622</v>
+        <v>60752.70249736184</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57998.61906960412</v>
+        <v>56523.46054342125</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329994.9866376074</v>
+        <v>334687.659297556</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127020.7135809765</v>
+        <v>126709.0925117385</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43653.09610320612</v>
+        <v>39160.51891814119</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>479395.7915743776</v>
+        <v>490718.9879254698</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109939.9744680807</v>
+        <v>113564.0301500868</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_inv_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_cost.xlsx
@@ -495,7 +495,7 @@
         <v>13556.8743697279</v>
       </c>
       <c r="B2" t="n">
-        <v>12807.05121601179</v>
+        <v>12807.05121601724</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140269.0210065423</v>
+        <v>140269.0210065367</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60400.70761577622</v>
+        <v>60400.7076157763</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57998.61906960412</v>
+        <v>57998.61906960408</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329994.9866376074</v>
+        <v>329994.9866376077</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127020.7135809765</v>
+        <v>127020.7135809762</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43653.09610320612</v>
+        <v>43653.09610321066</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>479395.7915743776</v>
+        <v>479395.7915743805</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109939.9744680807</v>
+        <v>109939.9744680742</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_inv_cost.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13556.8743697279</v>
+        <v>13542.66239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>12807.05121601724</v>
+        <v>7388.713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140269.0210065367</v>
+        <v>145938.1080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661809</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60400.7076157763</v>
+        <v>60752.70249736184</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57998.61906960408</v>
+        <v>56523.46054342134</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329994.9866376077</v>
+        <v>334687.6592975559</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127020.7135809762</v>
+        <v>126709.0925117386</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43653.09610321066</v>
+        <v>39160.51891814145</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>479395.7915743805</v>
+        <v>490718.987925473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109939.9744680742</v>
+        <v>113564.030150086</v>
       </c>
     </row>
   </sheetData>
